--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
@@ -3106,12 +3106,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA VARIADA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -3133,13 +3133,13 @@
         <v>19</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>34.01</v>
+        <v>33.74</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>15.72</v>
+        <v>15.47</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>63.33</v>
+        <v>79.17</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -3151,50 +3151,50 @@
         <v>18.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T31" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>DALIA DECORATIVA VARIADA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -3216,13 +3216,13 @@
         <v>19</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>33.74</v>
+        <v>34.01</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>15.47</v>
+        <v>15.72</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>79.17</v>
+        <v>63.33</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -3234,38 +3234,38 @@
         <v>18.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T32" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -3548,13 +3548,13 @@
         <v>16</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>28.64</v>
+        <v>28.37</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>13.24</v>
+        <v>12.99</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>53.33</v>
+        <v>57.14</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>15.7</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>53</v>
@@ -3604,12 +3604,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -3631,13 +3631,13 @@
         <v>16</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>28.37</v>
+        <v>28.64</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>12.99</v>
+        <v>13.24</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>57.14</v>
+        <v>53.33</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>15.7</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>53</v>
@@ -4019,12 +4019,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -4046,10 +4046,10 @@
         <v>4</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>27.96</v>
+        <v>23.96</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>14.18</v>
+        <v>10.54</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>-4</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>0</v>
@@ -4102,12 +4102,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -4129,10 +4129,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>23.96</v>
+        <v>21.96</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>10.54</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>-4</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>0</v>
@@ -4185,12 +4185,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>21.96</v>
+        <v>27.96</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>14.18</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>-4</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>0</v>
@@ -4268,12 +4268,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5402050013</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>TOMATE MARMANDE CUARANTENO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4295,10 +4295,10 @@
         <v>14</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>24.92</v>
+        <v>24.36</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>11.45</v>
+        <v>10.95</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>70</v>
@@ -4316,47 +4316,47 @@
         <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4384,7 +4384,7 @@
         <v>11.58</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>45.16</v>
+        <v>70</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>13.7</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>2</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -4427,19 +4427,19 @@
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>PETUNIA PENDULA VARIADA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4467,7 +4467,7 @@
         <v>11.58</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>70</v>
+        <v>45.16</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>13.7</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>2</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402050013</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE CUARANTENO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4544,10 +4544,10 @@
         <v>14</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>24.36</v>
+        <v>24.92</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>10.95</v>
+        <v>11.45</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>70</v>
@@ -4565,35 +4565,35 @@
         <v>6</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T48" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5181,12 +5181,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -5208,10 +5208,10 @@
         <v>12</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>21.48</v>
+        <v>21.36</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>9.93</v>
+        <v>9.82</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>60</v>
@@ -5229,47 +5229,47 @@
         <v>8</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T56" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -5291,10 +5291,10 @@
         <v>12</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>21.36</v>
+        <v>21.48</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>9.82</v>
+        <v>9.93</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>60</v>
@@ -5312,35 +5312,35 @@
         <v>8</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T57" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5762,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401020002</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>MARGARITA DE LOS PRADOS VARIADA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -5789,13 +5789,13 @@
         <v>11</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>19.42</v>
+        <v>19.69</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -5807,50 +5807,50 @@
         <v>10.8</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T63" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>5401020002</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS VARIADA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -5872,13 +5872,13 @@
         <v>11</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>19.69</v>
+        <v>19.42</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>0</v>
@@ -5890,38 +5890,38 @@
         <v>10.8</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T64" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6011,12 +6011,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>5101010005</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -6038,13 +6038,13 @@
         <v>3</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>16.17</v>
+        <v>16.47</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>6.45</v>
+        <v>6.72</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
@@ -6056,50 +6056,50 @@
         <v>2.9</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T66" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5101010005</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -6121,13 +6121,13 @@
         <v>3</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>16.47</v>
+        <v>16.17</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
@@ -6139,50 +6139,50 @@
         <v>2.9</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T67" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T67" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -6210,7 +6210,7 @@
         <v>8.27</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>43.48</v>
+        <v>50</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>0</v>
@@ -6222,38 +6222,38 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T68" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T68" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6426,12 +6426,12 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
         <v>8.27</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>50</v>
+        <v>43.48</v>
       </c>
       <c r="L71" s="4" t="n">
         <v>0</v>
@@ -6471,38 +6471,38 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O71" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="P71" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="R71" s="4" t="n">
+        <v>88.33</v>
+      </c>
+      <c r="S71" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="P71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="R71" s="4" t="n">
-        <v>148.33</v>
-      </c>
-      <c r="S71" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T71" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+      <c r="T71" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7087,12 +7087,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>ESPARRAGO MARY WASHINGTON</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -7114,10 +7114,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.57</v>
+        <v>16.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.95</v>
+        <v>7.45</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>90</v>
@@ -7135,47 +7135,47 @@
         <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T5" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T5" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -7218,47 +7218,47 @@
         <v>11</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T6" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T6" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
         <v>7.2</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -7298,50 +7298,50 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T7" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T7" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -7363,13 +7363,13 @@
         <v>9</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.2</v>
+        <v>7.45</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -7381,10 +7381,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>89</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -7412,19 +7412,19 @@
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -7446,13 +7446,13 @@
         <v>9</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -7464,10 +7464,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>89</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -7495,19 +7495,19 @@
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -7529,13 +7529,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.11</v>
+        <v>15.57</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.45</v>
+        <v>6.95</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -7547,38 +7547,38 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T10" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T10" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -8000,12 +8000,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -8048,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>89</v>
@@ -8083,12 +8083,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -8131,7 +8131,7 @@
         <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>89</v>
@@ -8249,12 +8249,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5402020003</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>CALABACIN REDONDO DE NIZA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -8276,10 +8276,10 @@
         <v>8</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>14.32</v>
+        <v>14.05</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>80</v>
@@ -8297,47 +8297,47 @@
         <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T19" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T19" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5402020003</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN REDONDO DE NIZA</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -8380,7 +8380,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>53</v>
@@ -8415,12 +8415,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -8442,13 +8442,13 @@
         <v>8</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>14.16</v>
+        <v>14.32</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.55</v>
+        <v>6.7</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>7.8</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>89</v>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -8491,19 +8491,19 @@
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5402050003</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -8525,10 +8525,10 @@
         <v>8</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>14.05</v>
+        <v>14.16</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>40</v>
@@ -8546,7 +8546,7 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>89</v>
@@ -8581,12 +8581,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5402050003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>PIMIENTO DULCE ITALIANO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -8614,7 +8614,7 @@
         <v>6.45</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -8626,38 +8626,38 @@
         <v>7.8</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T23" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T23" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8747,12 +8747,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -8780,10 +8780,10 @@
         <v>3.73</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>1</v>
@@ -8792,10 +8792,10 @@
         <v>2.9</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>92</v>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -8823,19 +8823,19 @@
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8857,16 +8857,16 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>9.49</v>
+        <v>10.5</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>2.81</v>
+        <v>3.73</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>1</v>
@@ -8875,50 +8875,50 @@
         <v>2.9</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T26" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8940,13 +8940,13 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>10.5</v>
+        <v>9.49</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>3.73</v>
+        <v>2.81</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8958,38 +8958,38 @@
         <v>2.9</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T27" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -9604,16 +9604,16 @@
         <v>7</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.86</v>
+        <v>5.37</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>2.3</v>
@@ -9622,38 +9622,38 @@
         <v>6.8</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T35" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T35" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -9743,12 +9743,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -9770,16 +9770,16 @@
         <v>7</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>5.37</v>
+        <v>5.86</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>2.3</v>
@@ -9788,50 +9788,50 @@
         <v>6.8</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T37" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9874,7 +9874,7 @@
         <v>3</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>92</v>
@@ -9992,12 +9992,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -10040,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>92</v>
@@ -10241,12 +10241,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -10268,13 +10268,13 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>8.9</v>
+        <v>10.78</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>3.21</v>
+        <v>4.92</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         <v>2</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>92</v>
@@ -10324,12 +10324,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -10351,13 +10351,13 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>10.78</v>
+        <v>8.9</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>4.92</v>
+        <v>3.21</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>92</v>
@@ -10407,12 +10407,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -10440,7 +10440,7 @@
         <v>3.21</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -10452,10 +10452,10 @@
         <v>2</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>92</v>
@@ -10490,12 +10490,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -10517,13 +10517,13 @@
         <v>6</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -10535,38 +10535,38 @@
         <v>5.9</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>28</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T46" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10656,12 +10656,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -10683,13 +10683,13 @@
         <v>6</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -10701,50 +10701,50 @@
         <v>5.9</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T48" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
+          <t>SANDÍA CRIMSON SWEET</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -10787,7 +10787,7 @@
         <v>14</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>89</v>
@@ -10822,12 +10822,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -10849,13 +10849,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>4.78</v>
+        <v>5.02</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -10867,38 +10867,38 @@
         <v>5.9</v>
       </c>
       <c r="O50" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P50" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="P50" s="4" t="n">
-        <v>48</v>
-      </c>
       <c r="Q50" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T50" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T50" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -10988,12 +10988,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
         <v>4</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>53</v>
@@ -11071,12 +11071,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -11098,10 +11098,10 @@
         <v>6</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>10.74</v>
+        <v>10.2</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>5.02</v>
+        <v>4.53</v>
       </c>
       <c r="K53" s="4" t="n">
         <v>60</v>
@@ -11119,7 +11119,7 @@
         <v>4</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>53</v>
@@ -11154,12 +11154,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -11181,10 +11181,10 @@
         <v>6</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>10.2</v>
+        <v>10.74</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>4.53</v>
+        <v>5.02</v>
       </c>
       <c r="K54" s="4" t="n">
         <v>60</v>
@@ -11202,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>53</v>
@@ -11237,12 +11237,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -11264,13 +11264,13 @@
         <v>6</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>5.02</v>
+        <v>4.78</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -11282,38 +11282,38 @@
         <v>5.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T55" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11652,12 +11652,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5401030005</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>CLAVEL GIGANTE VARIADO</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -11679,13 +11679,13 @@
         <v>5</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>8.68</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>3.89</v>
+        <v>4.14</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -11697,50 +11697,50 @@
         <v>4.9</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T60" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T60" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>5401030005</t>
+          <t>5401010016</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE VARIADO</t>
+          <t>ESTATICE VARIADA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -11768,10 +11768,10 @@
         <v>4.14</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>1.6</v>
@@ -11780,50 +11780,50 @@
         <v>4.9</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T61" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T61" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5401010016</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>ESTATICE VARIADA</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -11845,16 +11845,16 @@
         <v>5</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>4.14</v>
+        <v>3.89</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>50</v>
+        <v>31.25</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>1.6</v>
@@ -11863,38 +11863,38 @@
         <v>4.9</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T62" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11984,12 +11984,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -12032,47 +12032,47 @@
         <v>5</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T64" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T64" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>4.19</v>
       </c>
       <c r="K65" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L65" s="4" t="n">
         <v>0</v>
@@ -12112,50 +12112,50 @@
         <v>4.9</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T65" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T65" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -12183,7 +12183,7 @@
         <v>4.19</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
@@ -12195,10 +12195,10 @@
         <v>4.9</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Q66" s="4" t="n">
         <v>89</v>
@@ -12233,12 +12233,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -12281,7 +12281,7 @@
         <v>3</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>92</v>
@@ -12479,12 +12479,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -12527,7 +12527,7 @@
         <v>3</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>92</v>
@@ -12562,12 +12562,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5402090007</t>
+          <t>5402030006</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA DULCE DE FUENTES 2019</t>
+          <t>ZANAHORIA NANTESA ECOLOGICA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -12589,10 +12589,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.34</v>
+        <v>3.85</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>50</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>53</v>
@@ -12645,12 +12645,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402030006</t>
+          <t>5402090007</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ZANAHORIA NANTESA ECOLOGICA</t>
+          <t>CEBOLLA DULCE DE FUENTES 2019</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -12672,10 +12672,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.41</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.85</v>
+        <v>4.34</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>50</v>
@@ -12693,7 +12693,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>53</v>
@@ -12894,12 +12894,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -12921,13 +12921,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -12939,16 +12939,16 @@
         <v>3.9</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>38.33</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>0</v>
@@ -12960,17 +12960,17 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13060,12 +13060,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -13087,13 +13087,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -13105,16 +13105,16 @@
         <v>3.9</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0</v>
+        <v>38.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>0</v>
@@ -13126,29 +13126,29 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA 2011</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -13170,13 +13170,13 @@
         <v>4</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -13188,50 +13188,50 @@
         <v>3.9</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T10" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>BERENJENA REDONDA NEGRA LISA 2011</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -13259,7 +13259,7 @@
         <v>3.1</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -13271,38 +13271,38 @@
         <v>3.9</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13392,12 +13392,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -13419,13 +13419,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>6.89</v>
+        <v>7.54</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>3.1</v>
+        <v>3.69</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -13437,50 +13437,50 @@
         <v>3.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T13" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>PIMIENTO BLOCKY AMARILLO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -13508,7 +13508,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -13520,10 +13520,10 @@
         <v>3.9</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>89</v>
@@ -13558,12 +13558,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -13585,10 +13585,10 @@
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>40</v>
@@ -13606,47 +13606,47 @@
         <v>6</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T15" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T15" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -13668,13 +13668,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>7.54</v>
+        <v>6.62</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>3.69</v>
+        <v>2.86</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -13686,50 +13686,50 @@
         <v>3.9</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="P16" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>148.33</v>
+      </c>
+      <c r="S16" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="Q16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+      <c r="T16" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -13751,13 +13751,13 @@
         <v>4</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>6.62</v>
+        <v>6.89</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
@@ -13769,10 +13769,10 @@
         <v>3.9</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>89</v>
@@ -14305,12 +14305,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -14388,12 +14388,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -14720,12 +14720,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>COL REPOLLO BRUNSWICK TENTA</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -14747,13 +14747,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.75</v>
+        <v>5.37</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>2.86</v>
+        <v>2.51</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -14765,50 +14765,50 @@
         <v>2.9</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T29" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>COL REPOLLO BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -14830,13 +14830,13 @@
         <v>3</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>4.83</v>
+        <v>5.75</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>2.02</v>
+        <v>2.86</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -14848,50 +14848,50 @@
         <v>2.9</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T30" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -14913,13 +14913,13 @@
         <v>3</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>5.37</v>
+        <v>4.83</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.51</v>
+        <v>2.02</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -14931,50 +14931,50 @@
         <v>2.9</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T31" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -15002,7 +15002,7 @@
         <v>2.51</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -15014,38 +15014,38 @@
         <v>2.9</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T32" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -15301,12 +15301,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -15328,10 +15328,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>3.58</v>
+        <v>3.04</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>0</v>
@@ -15349,7 +15349,7 @@
         <v>-2</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>0</v>
@@ -15384,24 +15384,16 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PIMIENTO PADRON</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -15419,16 +15411,16 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>20</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0.7</v>
@@ -15440,51 +15432,59 @@
         <v>8</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T37" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T37" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -15502,16 +15502,16 @@
         <v>2</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0.7</v>
@@ -15520,50 +15520,50 @@
         <v>2</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T38" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T38" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -15591,10 +15591,10 @@
         <v>1.65</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0.7</v>
@@ -15603,10 +15603,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>89</v>
@@ -15641,12 +15641,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -15668,10 +15668,10 @@
         <v>2</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>3.04</v>
+        <v>3.58</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.16</v>
+        <v>1.65</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>0</v>
@@ -15689,7 +15689,7 @@
         <v>-2</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0</v>
@@ -15724,12 +15724,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -15772,47 +15772,47 @@
         <v>8</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T41" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>BERENJENA REDONDA NEGRA LISA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -15834,13 +15834,13 @@
         <v>2</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -15852,50 +15852,50 @@
         <v>2</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T42" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402090015</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA</t>
+          <t>ESPINACA VIKING DE VERANO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -15938,7 +15938,7 @@
         <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>89</v>
@@ -15973,12 +15973,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -16021,7 +16021,7 @@
         <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>89</v>
@@ -16056,12 +16056,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -16083,13 +16083,13 @@
         <v>2</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -16101,50 +16101,50 @@
         <v>2</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T45" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5402090015</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA VIKING DE VERANO</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -16187,7 +16187,7 @@
         <v>8</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>89</v>
@@ -16471,12 +16471,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -16519,47 +16519,47 @@
         <v>9</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T50" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T50" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -16602,35 +16602,35 @@
         <v>9</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T51" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T51" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -17049,12 +17049,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5103010005</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
+          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -17085,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
@@ -17115,7 +17115,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -17132,24 +17132,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5404010024</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>PEREJIL COMUN ECOLOGICO</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -17177,19 +17177,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>153.33</v>
+        <v>88.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -17198,12 +17198,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -17215,24 +17215,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402020018</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA MAMMOTH GOLD</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -17251,7 +17251,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -17260,19 +17260,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -17281,12 +17281,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -17298,12 +17298,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
+          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -17364,7 +17364,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -17381,24 +17381,32 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402090014</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA GIGANTE DE INVIERNO</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -17417,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -17426,19 +17434,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -17447,12 +17455,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -17464,24 +17472,32 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -17500,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -17509,7 +17525,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -17530,7 +17546,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -17547,24 +17563,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5401010029</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ENANO</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -17583,7 +17599,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -17592,19 +17608,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -17613,12 +17629,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -17630,12 +17646,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -17666,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -17675,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -17696,7 +17712,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -17713,12 +17729,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -17749,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -17758,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
@@ -17779,7 +17795,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -17796,12 +17812,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -17862,7 +17878,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -17879,24 +17895,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5401020001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
+          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -17915,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -17924,19 +17940,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -17945,12 +17961,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -17962,12 +17978,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5107190003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 X3</t>
+          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -17998,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -18007,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
@@ -18028,7 +18044,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -18045,32 +18061,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5402020018</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALABAZA MAMMOTH GOLD</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -18089,7 +18097,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -18098,19 +18106,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -18119,12 +18127,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -18136,32 +18144,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5401010029</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TAGETE ENANO</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -18189,19 +18189,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -18210,12 +18210,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -18227,12 +18227,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -18310,12 +18310,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -18346,7 +18346,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -18376,7 +18376,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -18393,24 +18393,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5401020001</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -18438,19 +18438,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -18459,12 +18459,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -18476,12 +18476,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5107190003</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
+          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -18542,7 +18542,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -18559,24 +18559,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -18642,24 +18642,16 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402090014</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ESPINACA GIGANTE DE INVIERNO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -18686,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -18695,19 +18687,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -18716,12 +18708,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -18733,24 +18725,32 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -18769,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
@@ -18799,7 +18799,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -18816,12 +18816,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -18852,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -18861,7 +18861,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
@@ -18882,7 +18882,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -18899,12 +18899,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>ARUM MEZCLADO 14/16 X3</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
@@ -18965,7 +18965,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -18982,24 +18982,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
@@ -19048,7 +19048,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -19065,24 +19065,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5404010024</t>
+          <t>5103010005</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN ECOLOGICO</t>
+          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -19110,19 +19110,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>88.33</v>
+        <v>153.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T26" s="8" t="inlineStr">
         <is>
@@ -19131,12 +19131,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -19148,12 +19148,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
+          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -19193,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -19231,12 +19231,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
@@ -2185,12 +2185,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 3 UDS</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -2209,13 +2209,13 @@
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>47.94</v>
+        <v>59.9</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>20.78</v>
+        <v>31.65</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>0</v>
@@ -2224,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2268,12 +2268,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>ARUM MEZCLADO 14/16 3 UDS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -2292,13 +2292,13 @@
         <v>60</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>59.9</v>
+        <v>47.94</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>31.65</v>
+        <v>20.78</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0</v>
@@ -2307,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>9.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -3521,12 +3521,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -3548,13 +3548,13 @@
         <v>16</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>28.37</v>
+        <v>28.64</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>12.99</v>
+        <v>13.24</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>57.14</v>
+        <v>53.33</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>15.7</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>53</v>
@@ -3604,12 +3604,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -3631,13 +3631,13 @@
         <v>16</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>28.64</v>
+        <v>28.37</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>13.24</v>
+        <v>12.99</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>53.33</v>
+        <v>57.14</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>15.7</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>53</v>
@@ -4268,12 +4268,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402050013</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE CUARANTENO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4295,10 +4295,10 @@
         <v>14</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>24.36</v>
+        <v>24.92</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>10.95</v>
+        <v>11.45</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>70</v>
@@ -4316,47 +4316,47 @@
         <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T45" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5402050013</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>TOMATE MARMANDE CUARANTENO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4378,10 +4378,10 @@
         <v>14</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>25.06</v>
+        <v>24.36</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>11.58</v>
+        <v>10.95</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>70</v>
@@ -4402,44 +4402,44 @@
         <v>2</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T46" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4467,7 +4467,7 @@
         <v>11.58</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>45.16</v>
+        <v>70</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>13.7</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>2</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>PETUNIA PENDULA VARIADA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4544,13 +4544,13 @@
         <v>14</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>24.92</v>
+        <v>25.06</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>11.45</v>
+        <v>11.58</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>70</v>
+        <v>45.16</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -4562,10 +4562,10 @@
         <v>13.7</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>53</v>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5762,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5401020002</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS VARIADA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -5789,13 +5789,13 @@
         <v>11</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>19.69</v>
+        <v>19.42</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -5807,50 +5807,50 @@
         <v>10.8</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T63" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401020002</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>MARGARITA DE LOS PRADOS VARIADA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -5872,13 +5872,13 @@
         <v>11</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>19.42</v>
+        <v>19.69</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>0</v>
@@ -5890,38 +5890,38 @@
         <v>10.8</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T64" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T64" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
@@ -6287,13 +6287,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>17.36</v>
+        <v>17.9</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>7.78</v>
+        <v>8.27</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>83.33</v>
+        <v>50</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
@@ -6305,7 +6305,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>2</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -6336,19 +6336,19 @@
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
@@ -6370,13 +6370,13 @@
         <v>10</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>17.9</v>
+        <v>17.36</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>8.27</v>
+        <v>7.78</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>2</v>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="W70" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6921,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5102090003</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>DAHLIA BALLE EVELYNE I X1</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -6954,7 +6954,7 @@
         <v>4.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -6966,50 +6966,50 @@
         <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T3" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5102090003</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE EVELYNE I X1</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -7037,7 +7037,7 @@
         <v>4.82</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -7049,50 +7049,50 @@
         <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T4" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -7120,7 +7120,7 @@
         <v>7.45</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -7132,10 +7132,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>89</v>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -7163,19 +7163,19 @@
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -7218,47 +7218,47 @@
         <v>11</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T6" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T6" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
         <v>7.2</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -7298,50 +7298,50 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T7" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T7" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -7363,13 +7363,13 @@
         <v>9</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -7381,10 +7381,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>89</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -7412,19 +7412,19 @@
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>ESPARRAGO MARY WASHINGTON</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -7446,13 +7446,13 @@
         <v>9</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.2</v>
+        <v>7.45</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -7464,10 +7464,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>89</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7585,12 +7585,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5401010024</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -7612,13 +7612,13 @@
         <v>9</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>7.29</v>
+        <v>7.54</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -7630,38 +7630,38 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>2</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T11" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7751,12 +7751,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5401010024</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -7784,7 +7784,7 @@
         <v>7.54</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -7796,10 +7796,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>89</v>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -7827,19 +7827,19 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -7861,10 +7861,10 @@
         <v>9</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>7.54</v>
+        <v>7.29</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>90</v>
@@ -7882,35 +7882,35 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T14" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T14" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -8332,12 +8332,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5402050003</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>PIMIENTO DULCE ITALIANO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -8365,7 +8365,7 @@
         <v>6.45</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
@@ -8377,50 +8377,50 @@
         <v>7.8</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T20" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T20" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -8442,10 +8442,10 @@
         <v>8</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>14.32</v>
+        <v>14.05</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>80</v>
@@ -8463,35 +8463,35 @@
         <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T21" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T21" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -8581,12 +8581,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5402050003</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -8608,13 +8608,13 @@
         <v>8</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>14.05</v>
+        <v>14.32</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>6.45</v>
+        <v>6.7</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -8626,10 +8626,10 @@
         <v>7.8</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>89</v>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8747,12 +8747,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -8780,10 +8780,10 @@
         <v>3.73</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>1</v>
@@ -8792,10 +8792,10 @@
         <v>2.9</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>92</v>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -8823,19 +8823,19 @@
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8857,16 +8857,16 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>10.5</v>
+        <v>9.49</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>3.73</v>
+        <v>2.81</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>1</v>
@@ -8875,50 +8875,50 @@
         <v>2.9</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T26" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8940,13 +8940,13 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>9.49</v>
+        <v>10.5</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>2.81</v>
+        <v>3.73</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8958,38 +8958,38 @@
         <v>2.9</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T27" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9162,12 +9162,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5401030004</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>CLAVEL GIGANTE ESTRIADO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -9189,10 +9189,10 @@
         <v>7</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>5.3</v>
+        <v>5.79</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>35</v>
@@ -9210,47 +9210,47 @@
         <v>13</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T30" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -9272,13 +9272,13 @@
         <v>7</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -9290,50 +9290,50 @@
         <v>6.8</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T31" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T31" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -9355,13 +9355,13 @@
         <v>7</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>5.3</v>
+        <v>5.79</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>31.82</v>
+        <v>70</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>6.8</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>1</v>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -9404,19 +9404,19 @@
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5401030004</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ESTRIADO</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -9438,13 +9438,13 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>35</v>
+        <v>31.82</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -9456,10 +9456,10 @@
         <v>6.8</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>89</v>
@@ -9494,12 +9494,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -9530,7 +9530,7 @@
         <v>35</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>2.3</v>
@@ -9542,7 +9542,7 @@
         <v>13</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>89</v>
@@ -9577,12 +9577,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -9604,10 +9604,10 @@
         <v>7</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>11.99</v>
+        <v>12.26</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.37</v>
+        <v>5.62</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>70</v>
@@ -9625,7 +9625,7 @@
         <v>3</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>53</v>
@@ -9660,12 +9660,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>ALBAHACA LIMON</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -9687,13 +9687,13 @@
         <v>7</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>12.26</v>
+        <v>12.53</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.62</v>
+        <v>5.86</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -9705,50 +9705,50 @@
         <v>6.8</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T36" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -9770,16 +9770,16 @@
         <v>7</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>5.86</v>
+        <v>5.37</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>2.3</v>
@@ -9788,50 +9788,50 @@
         <v>6.8</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T37" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T37" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9853,10 +9853,10 @@
         <v>2</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>11.98</v>
+        <v>13.98</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>5.39</v>
+        <v>7.21</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>40</v>
@@ -9874,7 +9874,7 @@
         <v>3</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>92</v>
@@ -9909,12 +9909,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9936,10 +9936,10 @@
         <v>2</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>13.98</v>
+        <v>11.98</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>7.21</v>
+        <v>5.39</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>40</v>
@@ -9957,7 +9957,7 @@
         <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>92</v>
@@ -9992,12 +9992,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -10040,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>92</v>
@@ -10241,12 +10241,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -10268,13 +10268,13 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>10.78</v>
+        <v>8.9</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>4.92</v>
+        <v>3.21</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         <v>2</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>92</v>
@@ -10324,12 +10324,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -10351,13 +10351,13 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>8.9</v>
+        <v>10.78</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>3.21</v>
+        <v>4.92</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>92</v>
@@ -10407,12 +10407,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -10440,7 +10440,7 @@
         <v>3.21</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -10452,10 +10452,10 @@
         <v>2</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>92</v>
@@ -10490,12 +10490,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -10517,13 +10517,13 @@
         <v>6</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -10535,50 +10535,50 @@
         <v>5.9</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T46" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -10600,13 +10600,13 @@
         <v>6</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -10618,50 +10618,50 @@
         <v>5.9</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T47" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T47" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
+          <t>SANDÍA CRIMSON SWEET</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -10704,7 +10704,7 @@
         <v>14</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>89</v>
@@ -10739,12 +10739,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -10772,7 +10772,7 @@
         <v>4.96</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -10784,10 +10784,10 @@
         <v>5.9</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>89</v>
@@ -10822,12 +10822,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -10870,7 +10870,7 @@
         <v>4</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="4" t="n">
         <v>53</v>
@@ -10988,12 +10988,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
         <v>4</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>53</v>
@@ -11071,12 +11071,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -11098,10 +11098,10 @@
         <v>6</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>10.2</v>
+        <v>10.74</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>4.53</v>
+        <v>5.02</v>
       </c>
       <c r="K53" s="4" t="n">
         <v>60</v>
@@ -11119,7 +11119,7 @@
         <v>4</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>53</v>
@@ -11154,12 +11154,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -11181,13 +11181,13 @@
         <v>6</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>5.02</v>
+        <v>4.78</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -11199,50 +11199,50 @@
         <v>5.9</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T54" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T54" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -11264,13 +11264,13 @@
         <v>6</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>10.47</v>
+        <v>10.2</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>4.78</v>
+        <v>4.53</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -11282,38 +11282,38 @@
         <v>5.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T55" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11569,12 +11569,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -11596,16 +11596,16 @@
         <v>5</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>4.14</v>
+        <v>3.89</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>50</v>
+        <v>31.25</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>1.6</v>
@@ -11614,50 +11614,50 @@
         <v>4.9</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T59" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401030005</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE VARIADO</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -11685,10 +11685,10 @@
         <v>4.14</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>1.6</v>
@@ -11697,38 +11697,38 @@
         <v>4.9</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T60" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11818,12 +11818,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5401030005</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>CLAVEL GIGANTE VARIADO</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -11845,13 +11845,13 @@
         <v>5</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>8.68</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>3.89</v>
+        <v>4.14</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -11863,50 +11863,50 @@
         <v>4.9</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T62" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T62" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -11934,7 +11934,7 @@
         <v>4.19</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -11946,50 +11946,50 @@
         <v>4.9</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T63" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T63" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -12032,47 +12032,47 @@
         <v>5</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T64" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T64" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
@@ -12115,7 +12115,7 @@
         <v>5</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>53</v>
@@ -12150,12 +12150,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -12183,7 +12183,7 @@
         <v>4.19</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
@@ -12195,10 +12195,10 @@
         <v>4.9</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="Q66" s="4" t="n">
         <v>89</v>
@@ -12233,12 +12233,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -12281,7 +12281,7 @@
         <v>3</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>92</v>
@@ -12479,12 +12479,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -12527,7 +12527,7 @@
         <v>3</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>92</v>
@@ -12894,12 +12894,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -12921,13 +12921,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -12939,16 +12939,16 @@
         <v>3.9</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0</v>
+        <v>38.33</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>0</v>
@@ -12960,29 +12960,29 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -13004,10 +13004,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>0</v>
@@ -13025,7 +13025,7 @@
         <v>-4</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>0</v>
@@ -13060,12 +13060,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -13093,7 +13093,7 @@
         <v>3.31</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -13105,16 +13105,16 @@
         <v>3.9</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>38.33</v>
+        <v>0</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>0</v>
@@ -13126,17 +13126,17 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13226,12 +13226,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA 2011</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -13259,7 +13259,7 @@
         <v>3.1</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -13271,50 +13271,50 @@
         <v>3.9</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T11" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>BERENJENA REDONDA NEGRA LISA 2011</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -13342,7 +13342,7 @@
         <v>3.1</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -13354,50 +13354,50 @@
         <v>3.9</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T12" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -13419,13 +13419,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>7.54</v>
+        <v>6.62</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>3.69</v>
+        <v>2.86</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -13437,38 +13437,38 @@
         <v>3.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="P13" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>148.33</v>
+      </c>
+      <c r="S13" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="Q13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+      <c r="T13" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -13558,12 +13558,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -13585,13 +13585,13 @@
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>6.89</v>
+        <v>7.54</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>3.1</v>
+        <v>3.69</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -13603,50 +13603,50 @@
         <v>3.9</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -13668,13 +13668,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>6.62</v>
+        <v>6.89</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -13686,10 +13686,10 @@
         <v>3.9</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>89</v>
@@ -13724,12 +13724,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -13772,35 +13772,35 @@
         <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T17" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T17" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -14139,12 +14139,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -14166,10 +14166,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>4.95</v>
+        <v>4.45</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>2.06</v>
+        <v>1.61</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>20</v>
@@ -14187,7 +14187,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>92</v>
@@ -14222,12 +14222,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -14258,7 +14258,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0.3</v>
@@ -14270,7 +14270,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>92</v>
@@ -14305,12 +14305,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -14332,10 +14332,10 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>4.45</v>
+        <v>4.95</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>20</v>
@@ -14353,7 +14353,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>92</v>
@@ -14388,12 +14388,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -14424,7 +14424,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0.3</v>
@@ -14436,7 +14436,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>92</v>
@@ -14471,12 +14471,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -14498,16 +14498,16 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>5.37</v>
+        <v>4.83</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>30</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>1</v>
@@ -14519,47 +14519,47 @@
         <v>7</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T26" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -14581,16 +14581,16 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>4.83</v>
+        <v>5.37</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>30</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>1</v>
@@ -14602,35 +14602,35 @@
         <v>7</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T27" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -14720,12 +14720,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>COL REPOLLO BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -14747,13 +14747,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.37</v>
+        <v>5.75</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>2.51</v>
+        <v>2.86</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -14765,50 +14765,50 @@
         <v>2.9</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T29" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>COL REPOLLO BRUNSWICK TENTA</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -14830,13 +14830,13 @@
         <v>3</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>5.75</v>
+        <v>5.37</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>2.86</v>
+        <v>2.51</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -14848,38 +14848,38 @@
         <v>2.9</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T30" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T30" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -14969,12 +14969,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -15002,7 +15002,7 @@
         <v>2.51</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -15014,38 +15014,38 @@
         <v>2.9</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T32" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -15301,12 +15301,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -15328,10 +15328,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>3.04</v>
+        <v>3.58</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>1.16</v>
+        <v>1.65</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>0</v>
@@ -15349,7 +15349,7 @@
         <v>-2</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>0</v>
@@ -15384,12 +15384,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -15411,13 +15411,13 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>3.58</v>
+        <v>3.04</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -15429,38 +15429,38 @@
         <v>2</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T37" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T37" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -15641,12 +15641,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>PIMIENTO PADRON</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -15674,7 +15674,7 @@
         <v>1.65</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -15686,50 +15686,50 @@
         <v>2</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T40" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -15890,12 +15890,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402090015</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA VIKING DE VERANO</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -15938,7 +15938,7 @@
         <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>89</v>
@@ -15973,12 +15973,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402090015</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>ESPINACA VIKING DE VERANO</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -16021,7 +16021,7 @@
         <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>89</v>
@@ -16139,12 +16139,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -16388,12 +16388,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -16415,10 +16415,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>0</v>
@@ -16436,7 +16436,7 @@
         <v>-1</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0</v>
@@ -16471,12 +16471,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -16519,47 +16519,47 @@
         <v>9</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T50" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T50" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -16602,47 +16602,47 @@
         <v>9</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T51" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T51" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -16664,10 +16664,10 @@
         <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="K52" s="4" t="n">
         <v>0</v>
@@ -16685,7 +16685,7 @@
         <v>-1</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>0</v>
@@ -17049,24 +17049,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -17115,7 +17115,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -17132,24 +17132,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5404010024</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN ECOLOGICO</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -17168,7 +17176,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -17177,19 +17185,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>88.33</v>
+        <v>153.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -17198,12 +17206,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -17215,12 +17223,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -17251,7 +17259,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -17260,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
@@ -17281,7 +17289,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -17298,24 +17306,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5401010029</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
+          <t>TAGETE ENANO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -17334,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -17343,19 +17351,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -17364,12 +17372,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -17381,32 +17389,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5402020018</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALABAZA MAMMOTH GOLD</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -17434,19 +17434,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -17455,12 +17455,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -17472,32 +17472,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -17516,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -17525,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -17546,7 +17538,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -17563,12 +17555,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5107190003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -17599,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -17608,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -17629,7 +17621,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -17646,12 +17638,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
+          <t>ARUM MEZCLADO 14/16 X3</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -17682,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -17691,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -17712,7 +17704,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -17729,12 +17721,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -17795,7 +17787,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -17812,12 +17804,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -17878,7 +17870,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -17895,24 +17887,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5401020001</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
+          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -17931,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -17940,19 +17932,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -17961,12 +17953,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -17978,12 +17970,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5107190003</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -18014,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -18023,7 +18015,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
@@ -18044,7 +18036,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -18061,24 +18053,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402020018</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA MAMMOTH GOLD</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -18097,7 +18089,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -18106,19 +18098,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -18127,12 +18119,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -18144,12 +18136,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5401010029</t>
+          <t>5401020001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ENANO</t>
+          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -18227,12 +18219,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
+          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -18263,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -18272,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
@@ -18293,7 +18285,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -18310,12 +18302,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5103010005</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
+          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -18346,7 +18338,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -18355,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -18376,7 +18368,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -18393,24 +18385,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5402090014</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
+          <t>ESPINACA GIGANTE DE INVIERNO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -18429,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -18438,19 +18430,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -18459,12 +18451,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -18476,24 +18468,32 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -18521,19 +18521,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -18542,12 +18542,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -18559,24 +18559,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -18642,24 +18642,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402090014</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA GIGANTE DE INVIERNO</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -18687,19 +18687,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -18708,12 +18708,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -18725,32 +18725,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CANNA ENANA FV ZUMBA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -18769,7 +18761,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -18778,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
@@ -18799,7 +18791,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -18899,24 +18891,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5404010024</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 X3</t>
+          <t>PEREJIL COMUN ECOLOGICO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -18935,7 +18927,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -18944,19 +18936,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>153.33</v>
+        <v>88.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -18965,12 +18957,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -18982,12 +18974,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -19065,12 +19057,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5103010005</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
+          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -19101,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -19110,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -19131,7 +19123,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -19148,12 +19140,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -19184,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -19193,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -19214,7 +19206,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -19231,24 +19223,32 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
@@ -2185,12 +2185,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>ARUM MEZCLADO 14/16 3 UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -2209,13 +2209,13 @@
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>59.9</v>
+        <v>47.94</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>31.65</v>
+        <v>20.78</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>0</v>
@@ -2224,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>9.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2268,12 +2268,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 3 UDS</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -2292,13 +2292,13 @@
         <v>60</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>47.94</v>
+        <v>59.9</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>20.78</v>
+        <v>31.65</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0</v>
@@ -2307,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -3521,12 +3521,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -3548,13 +3548,13 @@
         <v>16</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>28.64</v>
+        <v>28.37</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>13.24</v>
+        <v>12.99</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>53.33</v>
+        <v>57.14</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>15.7</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>53</v>
@@ -3604,12 +3604,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -3631,13 +3631,13 @@
         <v>16</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>28.37</v>
+        <v>28.64</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>12.99</v>
+        <v>13.24</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>57.14</v>
+        <v>53.33</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>15.7</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>53</v>
@@ -4102,12 +4102,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -4129,10 +4129,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>21.96</v>
+        <v>27.96</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>14.18</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>-4</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>0</v>
@@ -4185,12 +4185,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>27.96</v>
+        <v>21.96</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>14.18</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>-4</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>0</v>
@@ -4268,12 +4268,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5402050013</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>TOMATE MARMANDE CUARANTENO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4295,10 +4295,10 @@
         <v>14</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>24.92</v>
+        <v>24.36</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>11.45</v>
+        <v>10.95</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>70</v>
@@ -4316,47 +4316,47 @@
         <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5402050013</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE CUARANTENO</t>
+          <t>PETUNIA PENDULA VARIADA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4378,13 +4378,13 @@
         <v>14</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>24.36</v>
+        <v>25.06</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>10.95</v>
+        <v>11.58</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>70</v>
+        <v>45.16</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -4396,38 +4396,38 @@
         <v>13.7</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>2</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T46" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4517,12 +4517,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4544,13 +4544,13 @@
         <v>14</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>25.06</v>
+        <v>24.92</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>11.58</v>
+        <v>11.45</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>45.16</v>
+        <v>70</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -4562,10 +4562,10 @@
         <v>13.7</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>53</v>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5762,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401020002</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>MARGARITA DE LOS PRADOS VARIADA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -5789,13 +5789,13 @@
         <v>11</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>19.42</v>
+        <v>19.69</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -5807,50 +5807,50 @@
         <v>10.8</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T63" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>5401020002</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS VARIADA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -5872,13 +5872,13 @@
         <v>11</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>19.69</v>
+        <v>19.42</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>0</v>
@@ -5890,38 +5890,38 @@
         <v>10.8</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T64" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6011,12 +6011,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5101010005</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -6038,13 +6038,13 @@
         <v>3</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>16.47</v>
+        <v>16.17</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
@@ -6056,50 +6056,50 @@
         <v>2.9</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>5101010005</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -6121,13 +6121,13 @@
         <v>3</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>16.17</v>
+        <v>16.47</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>6.45</v>
+        <v>6.72</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
@@ -6139,50 +6139,50 @@
         <v>2.9</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T67" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -6210,7 +6210,7 @@
         <v>8.27</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>50</v>
+        <v>43.48</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>0</v>
@@ -6222,50 +6222,50 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O68" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="P68" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q68" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="R68" s="4" t="n">
+        <v>88.33</v>
+      </c>
+      <c r="S68" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="P68" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="R68" s="4" t="n">
-        <v>148.33</v>
-      </c>
-      <c r="S68" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T68" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+      <c r="T68" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
@@ -6287,13 +6287,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>17.9</v>
+        <v>17.36</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>8.27</v>
+        <v>7.78</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
@@ -6305,7 +6305,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>2</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -6336,19 +6336,19 @@
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
@@ -6370,13 +6370,13 @@
         <v>10</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>17.36</v>
+        <v>17.9</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>7.78</v>
+        <v>8.27</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>83.33</v>
+        <v>50</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>2</v>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -6419,19 +6419,19 @@
       </c>
       <c r="W70" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
         <v>8.27</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>43.48</v>
+        <v>50</v>
       </c>
       <c r="L71" s="4" t="n">
         <v>0</v>
@@ -6471,38 +6471,38 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P71" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T71" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T71" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6921,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102090003</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE EVELYNE I X1</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -6954,7 +6954,7 @@
         <v>4.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -6966,50 +6966,50 @@
         <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T3" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5102090003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>DAHLIA BALLE EVELYNE I X1</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -7037,7 +7037,7 @@
         <v>4.82</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -7049,50 +7049,50 @@
         <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T4" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T4" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -7114,10 +7114,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>45</v>
@@ -7135,47 +7135,47 @@
         <v>11</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T5" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T5" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -7203,7 +7203,7 @@
         <v>7.2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -7215,10 +7215,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>89</v>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -7246,19 +7246,19 @@
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -7280,13 +7280,13 @@
         <v>9</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>15.84</v>
+        <v>15.57</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -7298,10 +7298,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>53</v>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -7329,19 +7329,19 @@
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -7363,13 +7363,13 @@
         <v>9</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.2</v>
+        <v>7.45</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -7381,10 +7381,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>89</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -7412,19 +7412,19 @@
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -7446,13 +7446,13 @@
         <v>9</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -7464,10 +7464,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>89</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -7495,19 +7495,19 @@
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>ESPARRAGO MARY WASHINGTON</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -7529,10 +7529,10 @@
         <v>9</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>15.57</v>
+        <v>16.11</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.95</v>
+        <v>7.45</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>90</v>
@@ -7550,47 +7550,47 @@
         <v>1</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T10" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5401010024</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -7618,7 +7618,7 @@
         <v>7.54</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -7630,10 +7630,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>89</v>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7751,12 +7751,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -7778,10 +7778,10 @@
         <v>9</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>7.54</v>
+        <v>7.29</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>90</v>
@@ -7799,47 +7799,47 @@
         <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T13" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T13" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5401010024</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -7861,13 +7861,13 @@
         <v>9</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>7.29</v>
+        <v>7.54</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -7879,38 +7879,38 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>2</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T14" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T14" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8249,12 +8249,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5402020003</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN REDONDO DE NIZA</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -8297,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>53</v>
@@ -8415,12 +8415,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -8442,13 +8442,13 @@
         <v>8</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>14.05</v>
+        <v>14.16</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
@@ -8460,50 +8460,50 @@
         <v>7.8</v>
       </c>
       <c r="O21" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="P21" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="Q21" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T21" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T21" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402020003</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>CALABACIN REDONDO DE NIZA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -8525,13 +8525,13 @@
         <v>8</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>14.16</v>
+        <v>14.05</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -8543,38 +8543,38 @@
         <v>7.8</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T22" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T22" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -8830,12 +8830,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8857,13 +8857,13 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>9.49</v>
+        <v>10.5</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>2.81</v>
+        <v>3.73</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -8875,50 +8875,50 @@
         <v>2.9</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T26" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8940,13 +8940,13 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>10.5</v>
+        <v>9.49</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>3.73</v>
+        <v>2.81</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8958,38 +8958,38 @@
         <v>2.9</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T27" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -9162,12 +9162,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5401030004</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ESTRIADO</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -9189,10 +9189,10 @@
         <v>7</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>35</v>
@@ -9210,47 +9210,47 @@
         <v>13</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T30" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T30" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5401030004</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>CLAVEL GIGANTE ESTRIADO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -9272,10 +9272,10 @@
         <v>7</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>5.3</v>
+        <v>5.79</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>35</v>
@@ -9293,47 +9293,47 @@
         <v>13</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T31" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T31" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -9355,13 +9355,13 @@
         <v>7</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>70</v>
+        <v>31.82</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>6.8</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>1</v>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -9404,19 +9404,19 @@
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -9438,13 +9438,13 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>5.3</v>
+        <v>5.79</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>31.82</v>
+        <v>70</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -9456,7 +9456,7 @@
         <v>6.8</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -9604,10 +9604,10 @@
         <v>7</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>12.26</v>
+        <v>11.99</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.62</v>
+        <v>5.37</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>70</v>
@@ -9625,7 +9625,7 @@
         <v>3</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>53</v>
@@ -9660,12 +9660,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -9687,13 +9687,13 @@
         <v>7</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>12.53</v>
+        <v>12.26</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.86</v>
+        <v>5.62</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -9705,50 +9705,50 @@
         <v>6.8</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T36" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>ALBAHACA LIMON</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -9770,13 +9770,13 @@
         <v>7</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>5.37</v>
+        <v>5.86</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -9788,38 +9788,38 @@
         <v>6.8</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T37" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9909,12 +9909,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9957,7 +9957,7 @@
         <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>92</v>
@@ -9992,12 +9992,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -10040,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>92</v>
@@ -10241,12 +10241,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -10274,7 +10274,7 @@
         <v>3.21</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         <v>2</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>92</v>
@@ -10324,12 +10324,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -10351,13 +10351,13 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>10.78</v>
+        <v>8.9</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>4.92</v>
+        <v>3.21</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>92</v>
@@ -10407,12 +10407,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -10434,13 +10434,13 @@
         <v>2</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>8.9</v>
+        <v>10.78</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>3.21</v>
+        <v>4.92</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -10452,10 +10452,10 @@
         <v>2</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>92</v>
@@ -10490,12 +10490,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -10523,7 +10523,7 @@
         <v>4.96</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -10535,10 +10535,10 @@
         <v>5.9</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>89</v>
@@ -10573,12 +10573,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -10600,13 +10600,13 @@
         <v>6</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -10618,38 +10618,38 @@
         <v>5.9</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T47" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10739,12 +10739,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -10766,13 +10766,13 @@
         <v>6</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -10784,38 +10784,38 @@
         <v>5.9</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T49" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10905,12 +10905,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -10932,10 +10932,10 @@
         <v>6</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>10.74</v>
+        <v>10.2</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>5.02</v>
+        <v>4.53</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>60</v>
@@ -10953,7 +10953,7 @@
         <v>4</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>53</v>
@@ -10988,12 +10988,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -11071,12 +11071,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -11098,13 +11098,13 @@
         <v>6</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>5.02</v>
+        <v>4.78</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -11116,50 +11116,50 @@
         <v>5.9</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T53" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T53" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -11181,13 +11181,13 @@
         <v>6</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>4.78</v>
+        <v>5.02</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -11199,50 +11199,50 @@
         <v>5.9</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T54" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T54" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -11264,10 +11264,10 @@
         <v>6</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>10.2</v>
+        <v>10.74</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>4.53</v>
+        <v>5.02</v>
       </c>
       <c r="K55" s="4" t="n">
         <v>60</v>
@@ -11285,7 +11285,7 @@
         <v>4</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>53</v>
@@ -11984,12 +11984,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -12032,7 +12032,7 @@
         <v>5</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>53</v>
@@ -12067,12 +12067,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
@@ -12115,47 +12115,47 @@
         <v>5</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T65" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T65" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -12198,35 +12198,35 @@
         <v>5</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T66" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T66" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12562,12 +12562,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5402030006</t>
+          <t>5402090007</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ZANAHORIA NANTESA ECOLOGICA</t>
+          <t>CEBOLLA DULCE DE FUENTES 2019</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -12589,10 +12589,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.41</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.85</v>
+        <v>4.34</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>50</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>53</v>
@@ -12645,12 +12645,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402090007</t>
+          <t>5402030006</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA DULCE DE FUENTES 2019</t>
+          <t>ZANAHORIA NANTESA ECOLOGICA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -12672,10 +12672,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.34</v>
+        <v>3.85</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>50</v>
@@ -12693,7 +12693,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>53</v>
@@ -12894,12 +12894,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -12921,13 +12921,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -12939,16 +12939,16 @@
         <v>3.9</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>38.33</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>0</v>
@@ -12960,29 +12960,29 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -13004,13 +13004,13 @@
         <v>4</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -13022,16 +13022,16 @@
         <v>3.9</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0</v>
+        <v>38.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>0</v>
@@ -13043,17 +13043,17 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -13143,12 +13143,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -13170,13 +13170,13 @@
         <v>4</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -13188,10 +13188,10 @@
         <v>3.9</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>89</v>
@@ -13309,12 +13309,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA 2011</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -13336,13 +13336,13 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>6.89</v>
+        <v>6.62</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -13354,50 +13354,50 @@
         <v>3.9</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T12" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>BERENJENA REDONDA NEGRA LISA 2011</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -13419,13 +13419,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>6.62</v>
+        <v>6.89</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -13437,38 +13437,38 @@
         <v>3.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T13" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13558,12 +13558,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -13585,13 +13585,13 @@
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>7.54</v>
+        <v>7.16</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>3.69</v>
+        <v>3.35</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -13603,50 +13603,50 @@
         <v>3.9</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="P15" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>148.33</v>
+      </c>
+      <c r="S15" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="Q15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+      <c r="T15" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -13668,13 +13668,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>6.89</v>
+        <v>7.54</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>3.1</v>
+        <v>3.69</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -13686,38 +13686,38 @@
         <v>3.9</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T16" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -14139,12 +14139,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -14166,10 +14166,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>4.45</v>
+        <v>4.95</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>20</v>
@@ -14187,7 +14187,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>92</v>
@@ -14305,12 +14305,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -14332,16 +14332,16 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>4.95</v>
+        <v>4.45</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>2.06</v>
+        <v>1.61</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>20</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0.3</v>
@@ -14353,7 +14353,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>92</v>
@@ -14388,12 +14388,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -14424,7 +14424,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0.3</v>
@@ -14436,7 +14436,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>92</v>
@@ -14471,12 +14471,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -14498,16 +14498,16 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>4.83</v>
+        <v>5.37</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>30</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>1</v>
@@ -14519,47 +14519,47 @@
         <v>7</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T26" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>CEBOLLINO ANUAL</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
         <v>2.48</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -14599,10 +14599,10 @@
         <v>2.9</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>89</v>
@@ -14637,12 +14637,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -14664,16 +14664,16 @@
         <v>3</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>5.37</v>
+        <v>4.83</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>1</v>
@@ -14682,50 +14682,50 @@
         <v>2.9</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T28" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>COL REPOLLO BRUNSWICK TENTA</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -14747,13 +14747,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.75</v>
+        <v>5.37</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>2.86</v>
+        <v>2.51</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -14765,50 +14765,50 @@
         <v>2.9</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T29" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -14830,13 +14830,13 @@
         <v>3</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>5.37</v>
+        <v>4.83</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>2.51</v>
+        <v>2.02</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -14848,50 +14848,50 @@
         <v>2.9</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T30" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>COL REPOLLO BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -14913,13 +14913,13 @@
         <v>3</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>4.83</v>
+        <v>5.75</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.02</v>
+        <v>2.86</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -14931,50 +14931,50 @@
         <v>2.9</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T31" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -15002,7 +15002,7 @@
         <v>2.51</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -15014,38 +15014,38 @@
         <v>2.9</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T32" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -15301,12 +15301,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -15328,10 +15328,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>3.58</v>
+        <v>3.04</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>0</v>
@@ -15349,7 +15349,7 @@
         <v>-2</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>0</v>
@@ -15384,12 +15384,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -15411,16 +15411,16 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>3.04</v>
+        <v>3.58</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>1.16</v>
+        <v>1.65</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0.7</v>
@@ -15429,38 +15429,38 @@
         <v>2</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="P37" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q37" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="Q37" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T37" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -15558,12 +15558,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>PIMIENTO PADRON</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -15591,10 +15591,10 @@
         <v>1.65</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0.7</v>
@@ -15603,10 +15603,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>89</v>
@@ -15641,12 +15641,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -15674,7 +15674,7 @@
         <v>1.65</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -15686,50 +15686,50 @@
         <v>2</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T40" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -15751,13 +15751,13 @@
         <v>2</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -15769,50 +15769,50 @@
         <v>2</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T41" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5402090015</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA</t>
+          <t>ESPINACA VIKING DE VERANO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -15855,47 +15855,47 @@
         <v>8</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T42" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T42" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>BERENJENA REDONDA NEGRA LISA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -15938,47 +15938,47 @@
         <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T43" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T43" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5402090015</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA VIKING DE VERANO</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -16021,7 +16021,7 @@
         <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>89</v>
@@ -16056,12 +16056,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -16083,13 +16083,13 @@
         <v>2</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -16101,38 +16101,38 @@
         <v>2</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T45" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -16388,12 +16388,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -16415,13 +16415,13 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -16433,50 +16433,50 @@
         <v>1</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T49" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -16498,13 +16498,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -16516,50 +16516,50 @@
         <v>1</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T50" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -16587,7 +16587,7 @@
         <v>0.84</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -16599,50 +16599,50 @@
         <v>1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T51" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -16670,7 +16670,7 @@
         <v>0.84</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -16682,38 +16682,38 @@
         <v>1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P52" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="Q52" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="R52" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T52" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -17049,12 +17049,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5402090014</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>ESPINACA GIGANTE DE INVIERNO</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -17085,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -17094,19 +17094,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -17115,12 +17115,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -17132,32 +17132,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -17176,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -17185,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -17206,7 +17198,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -17223,12 +17215,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
+          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -17259,7 +17251,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -17268,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
@@ -17289,7 +17281,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -17306,12 +17298,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5401010029</t>
+          <t>5404010024</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ENANO</t>
+          <t>PEREJIL COMUN ECOLOGICO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -17342,7 +17334,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -17351,19 +17343,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -17372,12 +17364,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -17389,12 +17381,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402020018</t>
+          <t>5401020001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA MAMMOTH GOLD</t>
+          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -17440,13 +17432,13 @@
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -17455,12 +17447,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -17472,24 +17464,32 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -17555,24 +17555,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5107190003</t>
+          <t>5401010029</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
+          <t>TAGETE ENANO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -17600,19 +17600,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -17621,12 +17621,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -17638,12 +17638,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 X3</t>
+          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -17674,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -17721,12 +17721,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -17766,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -17804,24 +17804,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5402020018</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>CALABAZA MAMMOTH GOLD</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -17840,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -17849,19 +17849,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -17870,12 +17870,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -17887,12 +17887,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -17932,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
@@ -17953,7 +17953,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -17970,24 +17970,32 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -18036,7 +18044,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -18053,12 +18061,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -18089,7 +18097,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -18098,7 +18106,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
@@ -18119,7 +18127,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -18136,24 +18144,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5401020001</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -18172,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -18181,19 +18189,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -18202,12 +18210,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -18219,12 +18227,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5103010005</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
+          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -18255,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -18264,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
@@ -18285,7 +18293,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -18302,12 +18310,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5103010005</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -18338,7 +18346,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -18347,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -18368,7 +18376,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -18385,24 +18393,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5402090014</t>
+          <t>5107190003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA GIGANTE DE INVIERNO</t>
+          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -18421,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -18430,19 +18438,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -18451,12 +18459,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -18468,32 +18476,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -18521,19 +18521,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -18542,12 +18542,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -18559,12 +18559,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
+          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -18642,24 +18642,32 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -18678,7 +18686,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -18687,19 +18695,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -18708,12 +18716,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -18725,12 +18733,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -18761,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -18770,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
@@ -18791,7 +18799,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -18808,12 +18816,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+          <t>ARUM MEZCLADO 14/16 X3</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -18844,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -18853,7 +18861,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
@@ -18874,7 +18882,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -18891,12 +18899,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5404010024</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN ECOLOGICO</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -18927,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -18936,19 +18944,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>88.33</v>
+        <v>153.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -18957,12 +18965,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -18974,12 +18982,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -19010,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -19019,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
@@ -19040,7 +19048,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -19057,12 +19065,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
+          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -19093,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -19102,7 +19110,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -19123,7 +19131,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -19140,12 +19148,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -19176,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -19185,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -19206,7 +19214,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -19223,32 +19231,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
@@ -2185,12 +2185,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 3 UDS</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -2209,13 +2209,13 @@
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>47.94</v>
+        <v>59.9</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>20.78</v>
+        <v>31.65</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>0</v>
@@ -2224,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2268,12 +2268,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>ARUM MEZCLADO 14/16 3 UDS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -2292,13 +2292,13 @@
         <v>60</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>59.9</v>
+        <v>47.94</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>31.65</v>
+        <v>20.78</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0</v>
@@ -2307,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>9.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -3106,12 +3106,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>DALIA DECORATIVA VARIADA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -3133,13 +3133,13 @@
         <v>19</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>33.74</v>
+        <v>34.01</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>15.47</v>
+        <v>15.72</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>79.17</v>
+        <v>63.33</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -3151,50 +3151,50 @@
         <v>18.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T31" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA VARIADA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -3216,13 +3216,13 @@
         <v>19</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>34.01</v>
+        <v>33.74</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>15.72</v>
+        <v>15.47</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>63.33</v>
+        <v>79.17</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -3234,38 +3234,38 @@
         <v>18.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4268,12 +4268,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402050013</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE CUARANTENO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4295,10 +4295,10 @@
         <v>14</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>24.36</v>
+        <v>24.92</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>10.95</v>
+        <v>11.45</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>70</v>
@@ -4316,47 +4316,47 @@
         <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T45" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4384,7 +4384,7 @@
         <v>11.58</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>45.16</v>
+        <v>70</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>13.7</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>2</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -4427,19 +4427,19 @@
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>PETUNIA PENDULA VARIADA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4467,7 +4467,7 @@
         <v>11.58</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>70</v>
+        <v>45.16</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>13.7</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>2</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5402050013</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>TOMATE MARMANDE CUARANTENO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4544,10 +4544,10 @@
         <v>14</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>24.92</v>
+        <v>24.36</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>11.45</v>
+        <v>10.95</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>70</v>
@@ -4565,35 +4565,35 @@
         <v>6</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T48" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5762,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5401020002</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS VARIADA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -5789,13 +5789,13 @@
         <v>11</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>19.69</v>
+        <v>19.42</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -5807,50 +5807,50 @@
         <v>10.8</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T63" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401020002</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>MARGARITA DE LOS PRADOS VARIADA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -5872,13 +5872,13 @@
         <v>11</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>19.42</v>
+        <v>19.69</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>0</v>
@@ -5890,38 +5890,38 @@
         <v>10.8</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T64" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T64" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6011,12 +6011,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>5101010005</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -6038,13 +6038,13 @@
         <v>3</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>16.17</v>
+        <v>16.47</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>6.45</v>
+        <v>6.72</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
@@ -6056,50 +6056,50 @@
         <v>2.9</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T66" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5101010005</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -6121,13 +6121,13 @@
         <v>3</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>16.47</v>
+        <v>16.17</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
@@ -6139,50 +6139,50 @@
         <v>2.9</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T67" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T67" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -6210,7 +6210,7 @@
         <v>8.27</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>43.48</v>
+        <v>50</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>0</v>
@@ -6222,50 +6222,50 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T68" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T68" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
@@ -6287,13 +6287,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>17.36</v>
+        <v>17.9</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>7.78</v>
+        <v>8.27</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>83.33</v>
+        <v>50</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
@@ -6305,7 +6305,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>2</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -6336,19 +6336,19 @@
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
@@ -6376,7 +6376,7 @@
         <v>8.27</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>50</v>
+        <v>43.48</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0</v>
@@ -6388,50 +6388,50 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O70" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="P70" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q70" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="R70" s="4" t="n">
+        <v>88.33</v>
+      </c>
+      <c r="S70" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="P70" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q70" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="R70" s="4" t="n">
-        <v>148.33</v>
-      </c>
-      <c r="S70" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T70" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+      <c r="T70" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
@@ -6453,13 +6453,13 @@
         <v>10</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>17.9</v>
+        <v>17.36</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>8.27</v>
+        <v>7.78</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="L71" s="4" t="n">
         <v>0</v>
@@ -6471,10 +6471,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P71" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q71" s="4" t="n">
         <v>89</v>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -6502,19 +6502,19 @@
       </c>
       <c r="W71" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
@@ -6536,10 +6536,10 @@
         <v>10</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>17.9</v>
+        <v>18.28</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K72" s="4" t="n">
         <v>50</v>
@@ -6557,7 +6557,7 @@
         <v>10</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q72" s="4" t="n">
         <v>89</v>
@@ -6592,12 +6592,12 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
@@ -6619,10 +6619,10 @@
         <v>10</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>18.28</v>
+        <v>17.9</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K73" s="4" t="n">
         <v>50</v>
@@ -6640,7 +6640,7 @@
         <v>10</v>
       </c>
       <c r="P73" s="4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q73" s="4" t="n">
         <v>89</v>
@@ -7087,12 +7087,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -7114,10 +7114,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.2</v>
+        <v>7.45</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>45</v>
@@ -7135,47 +7135,47 @@
         <v>11</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T5" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T5" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>ESPARRAGO MARY WASHINGTON</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -7197,10 +7197,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.2</v>
+        <v>7.45</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>90</v>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>89</v>
@@ -7336,12 +7336,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -7363,13 +7363,13 @@
         <v>9</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -7381,10 +7381,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>89</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -7412,19 +7412,19 @@
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -7467,47 +7467,47 @@
         <v>11</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T9" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T9" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -7529,13 +7529,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -7547,10 +7547,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>89</v>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8000,12 +8000,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -8048,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>89</v>
@@ -8083,12 +8083,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -8131,7 +8131,7 @@
         <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>89</v>
@@ -8249,12 +8249,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -8276,10 +8276,10 @@
         <v>8</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>14.05</v>
+        <v>14.32</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>6.45</v>
+        <v>6.7</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>80</v>
@@ -8297,47 +8297,47 @@
         <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T19" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T19" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5402050003</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -8359,10 +8359,10 @@
         <v>8</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>14.05</v>
+        <v>14.16</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>40</v>
@@ -8380,7 +8380,7 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>89</v>
@@ -8415,12 +8415,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402050003</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>PIMIENTO DULCE ITALIANO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -8442,10 +8442,10 @@
         <v>8</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>14.16</v>
+        <v>14.05</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>40</v>
@@ -8463,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>89</v>
@@ -8581,12 +8581,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -8608,10 +8608,10 @@
         <v>8</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>14.32</v>
+        <v>14.05</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>80</v>
@@ -8629,35 +8629,35 @@
         <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T23" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T23" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -8747,12 +8747,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -8774,16 +8774,16 @@
         <v>3</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>10.5</v>
+        <v>9.49</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>3.73</v>
+        <v>2.81</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>1</v>
@@ -8792,38 +8792,38 @@
         <v>2.9</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T25" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -8913,12 +8913,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8940,16 +8940,16 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>9.49</v>
+        <v>10.5</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>2.81</v>
+        <v>3.73</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>1</v>
@@ -8958,38 +8958,38 @@
         <v>2.9</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T27" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -9328,12 +9328,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -9355,13 +9355,13 @@
         <v>7</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>5.3</v>
+        <v>5.79</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>31.82</v>
+        <v>70</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>6.8</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>1</v>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -9404,19 +9404,19 @@
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -9438,13 +9438,13 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>70</v>
+        <v>31.82</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -9456,7 +9456,7 @@
         <v>6.8</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>ALBAHACA LIMON</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -9604,13 +9604,13 @@
         <v>7</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.37</v>
+        <v>5.86</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -9622,38 +9622,38 @@
         <v>6.8</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T35" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T35" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9743,12 +9743,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -9770,13 +9770,13 @@
         <v>7</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>5.86</v>
+        <v>5.37</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -9788,50 +9788,50 @@
         <v>6.8</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T37" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T37" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9853,10 +9853,10 @@
         <v>2</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>13.98</v>
+        <v>11.98</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>7.21</v>
+        <v>5.39</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>40</v>
@@ -9874,7 +9874,7 @@
         <v>3</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>92</v>
@@ -9909,12 +9909,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9957,7 +9957,7 @@
         <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>92</v>
@@ -9992,12 +9992,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -10019,10 +10019,10 @@
         <v>2</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>11.98</v>
+        <v>13.98</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>5.39</v>
+        <v>7.21</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>40</v>
@@ -10040,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>92</v>
@@ -10490,12 +10490,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -10523,7 +10523,7 @@
         <v>4.96</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -10535,10 +10535,10 @@
         <v>5.9</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>89</v>
@@ -10573,12 +10573,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
+          <t>SANDÍA CRIMSON SWEET</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -10621,7 +10621,7 @@
         <v>14</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>89</v>
@@ -10656,12 +10656,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -10683,13 +10683,13 @@
         <v>6</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -10701,50 +10701,50 @@
         <v>5.9</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>28</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T48" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -10766,13 +10766,13 @@
         <v>6</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -10784,50 +10784,50 @@
         <v>5.9</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T49" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -10849,13 +10849,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>5.02</v>
+        <v>4.78</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -10867,38 +10867,38 @@
         <v>5.9</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T50" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T50" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10988,12 +10988,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
         <v>4</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>53</v>
@@ -11071,12 +11071,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -11098,13 +11098,13 @@
         <v>6</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>4.78</v>
+        <v>5.02</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -11116,50 +11116,50 @@
         <v>5.9</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T53" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T53" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -11202,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>53</v>
@@ -11237,12 +11237,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -11652,12 +11652,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5401030005</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>CLAVEL GIGANTE VARIADO</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -11685,10 +11685,10 @@
         <v>4.14</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>1.6</v>
@@ -11697,38 +11697,38 @@
         <v>4.9</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T60" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11818,12 +11818,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5401030005</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE VARIADO</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -11851,10 +11851,10 @@
         <v>4.14</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>1.6</v>
@@ -11863,50 +11863,50 @@
         <v>4.9</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T62" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T62" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -11934,7 +11934,7 @@
         <v>4.19</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -11946,50 +11946,50 @@
         <v>4.9</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T63" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T63" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -12017,7 +12017,7 @@
         <v>4.19</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>0</v>
@@ -12029,38 +12029,38 @@
         <v>4.9</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T64" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T64" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13143,12 +13143,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -13191,47 +13191,47 @@
         <v>6</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T10" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T10" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>BERENJENA REDONDA NEGRA LISA 2011</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -13259,7 +13259,7 @@
         <v>3.1</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -13271,50 +13271,50 @@
         <v>3.9</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -13336,13 +13336,13 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>6.62</v>
+        <v>6.89</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -13354,10 +13354,10 @@
         <v>3.9</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>89</v>
@@ -13392,12 +13392,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA 2011</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -13419,13 +13419,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>6.89</v>
+        <v>6.62</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -13437,38 +13437,38 @@
         <v>3.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T13" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -13558,12 +13558,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -13585,13 +13585,13 @@
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>7.16</v>
+        <v>7.54</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>3.35</v>
+        <v>3.69</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -13603,50 +13603,50 @@
         <v>3.9</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T15" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -13668,13 +13668,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>7.54</v>
+        <v>7.16</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>3.69</v>
+        <v>3.35</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -13686,38 +13686,38 @@
         <v>3.9</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="P16" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>148.33</v>
+      </c>
+      <c r="S16" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="Q16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+      <c r="T16" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -14222,12 +14222,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -14258,7 +14258,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0.3</v>
@@ -14270,7 +14270,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>92</v>
@@ -14305,12 +14305,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -14341,7 +14341,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0.3</v>
@@ -14353,7 +14353,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>92</v>
@@ -14720,12 +14720,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>COL REPOLLO BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -14747,13 +14747,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.37</v>
+        <v>5.75</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>2.51</v>
+        <v>2.86</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -14765,50 +14765,50 @@
         <v>2.9</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T29" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -14830,13 +14830,13 @@
         <v>3</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>4.83</v>
+        <v>5.37</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>2.02</v>
+        <v>2.51</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -14848,50 +14848,50 @@
         <v>2.9</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T30" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>COL REPOLLO BRUNSWICK TENTA</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -14913,13 +14913,13 @@
         <v>3</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>5.75</v>
+        <v>5.37</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.86</v>
+        <v>2.51</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -14931,50 +14931,50 @@
         <v>2.9</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T31" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -14996,13 +14996,13 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>5.37</v>
+        <v>4.83</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2.51</v>
+        <v>2.02</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -15014,38 +15014,38 @@
         <v>2.9</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T32" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -15384,16 +15384,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -15411,16 +15419,16 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0.7</v>
@@ -15429,62 +15437,54 @@
         <v>2</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T37" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T37" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PIMIENTO PADRON</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -15502,16 +15502,16 @@
         <v>2</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>20</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0.7</v>
@@ -15523,47 +15523,47 @@
         <v>8</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T38" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T38" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -15591,7 +15591,7 @@
         <v>1.65</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -15603,50 +15603,50 @@
         <v>2</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T39" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -15674,10 +15674,10 @@
         <v>1.65</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0.7</v>
@@ -15686,50 +15686,50 @@
         <v>2</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T40" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402090015</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>ESPINACA VIKING DE VERANO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -15751,13 +15751,13 @@
         <v>2</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -15769,50 +15769,50 @@
         <v>2</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T41" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402090015</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA VIKING DE VERANO</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -15855,7 +15855,7 @@
         <v>8</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>89</v>
@@ -15890,12 +15890,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -15938,35 +15938,35 @@
         <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T43" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T43" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -16056,12 +16056,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>BERENJENA REDONDA NEGRA LISA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -16104,47 +16104,47 @@
         <v>8</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T45" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T45" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -16166,13 +16166,13 @@
         <v>2</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -16184,50 +16184,50 @@
         <v>2</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T46" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -16255,7 +16255,7 @@
         <v>0.83</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -16267,16 +16267,16 @@
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>38.33</v>
+        <v>0</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>0</v>
@@ -16288,29 +16288,29 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>CALABAZA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -16338,7 +16338,7 @@
         <v>0.83</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -16350,16 +16350,16 @@
         <v>1</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>0</v>
+        <v>38.33</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>0</v>
@@ -16371,29 +16371,29 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -16415,13 +16415,13 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -16433,50 +16433,50 @@
         <v>1</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T49" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -16498,13 +16498,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -16516,50 +16516,50 @@
         <v>1</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T50" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -16587,7 +16587,7 @@
         <v>0.84</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -16599,50 +16599,50 @@
         <v>1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P51" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="Q51" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="R51" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T51" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -16670,7 +16670,7 @@
         <v>0.84</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -16682,38 +16682,38 @@
         <v>1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T52" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -17049,24 +17049,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402090014</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA GIGANTE DE INVIERNO</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -17085,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -17094,19 +17094,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -17115,12 +17115,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -17132,24 +17132,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -17168,7 +17176,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -17177,19 +17185,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -17198,12 +17206,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -17215,24 +17223,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5401010029</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
+          <t>TAGETE ENANO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -17251,7 +17259,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -17260,19 +17268,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -17281,12 +17289,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -17298,12 +17306,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5404010024</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN ECOLOGICO</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -17334,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -17343,19 +17351,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>88.33</v>
+        <v>153.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -17364,12 +17372,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -17381,24 +17389,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5401020001</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
+          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -17417,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -17426,19 +17434,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -17447,12 +17455,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -17464,32 +17472,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5107190003</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -17555,12 +17555,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5401010029</t>
+          <t>5402020018</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ENANO</t>
+          <t>CALABAZA MAMMOTH GOLD</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -17606,13 +17606,13 @@
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -17621,12 +17621,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -17721,24 +17721,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5404010024</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>PEREJIL COMUN ECOLOGICO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -17766,19 +17766,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>153.33</v>
+        <v>88.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -17787,12 +17787,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -17804,24 +17804,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402020018</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA MAMMOTH GOLD</t>
+          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -17840,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -17849,19 +17849,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -17870,12 +17870,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -17887,12 +17887,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5103010005</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
+          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -17932,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
@@ -17953,7 +17953,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -17970,32 +17970,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -18014,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -18023,7 +18015,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
@@ -18044,7 +18036,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -18061,12 +18053,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
+          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -18097,7 +18089,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -18106,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
@@ -18127,7 +18119,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -18144,12 +18136,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
+          <t>ARUM MEZCLADO 14/16 X3</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -18180,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -18189,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
@@ -18210,7 +18202,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -18227,12 +18219,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5103010005</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -18263,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -18272,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
@@ -18293,7 +18285,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -18310,12 +18302,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -18346,7 +18338,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -18355,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -18376,7 +18368,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -18393,24 +18385,32 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5107190003</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
@@ -18459,7 +18459,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -18476,24 +18476,32 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -18512,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -18521,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -18542,7 +18550,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -18559,12 +18567,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -18595,7 +18603,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -18604,7 +18612,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
@@ -18625,7 +18633,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -18642,32 +18650,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -18686,7 +18686,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -18695,19 +18695,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -18716,12 +18716,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -18733,12 +18733,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -18769,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
@@ -18799,7 +18799,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -18816,12 +18816,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 X3</t>
+          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -18852,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -18861,7 +18861,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
@@ -18882,7 +18882,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -18899,24 +18899,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
@@ -18965,7 +18965,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -18982,24 +18982,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5401020001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -19027,19 +19027,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -19048,12 +19048,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -19065,12 +19065,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -19110,7 +19110,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -19131,7 +19131,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -19148,24 +19148,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5402090014</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
+          <t>ESPINACA GIGANTE DE INVIERNO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -19193,19 +19193,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
@@ -19214,12 +19214,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -19231,12 +19231,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
@@ -2179,12 +2179,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>ARUM MEZCLADO 14/16 3 UDS</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -2203,13 +2203,13 @@
         <v>60</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>59.9</v>
+        <v>47.94</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>31.65</v>
+        <v>20.78</v>
       </c>
       <c r="K20" s="3" t="n">
         <v>0</v>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="3" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 3 UDS</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -2286,13 +2286,13 @@
         <v>60</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>47.94</v>
+        <v>59.9</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>20.78</v>
+        <v>31.65</v>
       </c>
       <c r="K21" s="3" t="n">
         <v>0</v>
@@ -2301,16 +2301,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="3" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
@@ -3515,12 +3515,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -3542,13 +3542,13 @@
         <v>16</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>28.37</v>
+        <v>28.64</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>12.99</v>
+        <v>13.24</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>57.14</v>
+        <v>53.33</v>
       </c>
       <c r="L36" s="3" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>15.7</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>53</v>
@@ -3598,12 +3598,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -3625,13 +3625,13 @@
         <v>16</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>28.64</v>
+        <v>28.37</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>13.24</v>
+        <v>12.99</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>53.33</v>
+        <v>57.14</v>
       </c>
       <c r="L37" s="3" t="n">
         <v>0</v>
@@ -3643,10 +3643,10 @@
         <v>15.7</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>53</v>
@@ -4013,12 +4013,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -4040,10 +4040,10 @@
         <v>4</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>27.96</v>
+        <v>21.96</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>14.18</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K42" s="3" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-4</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="3" t="n">
         <v>0</v>
@@ -4179,12 +4179,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -4206,10 +4206,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>21.96</v>
+        <v>27.96</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>8.720000000000001</v>
+        <v>14.18</v>
       </c>
       <c r="K44" s="3" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>-4</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>0</v>
@@ -4262,12 +4262,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>5402050013</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE CUARANTENO</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -4289,10 +4289,10 @@
         <v>14</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>24.36</v>
+        <v>25.06</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>10.95</v>
+        <v>11.58</v>
       </c>
       <c r="K45" s="3" t="n">
         <v>70</v>
@@ -4313,44 +4313,44 @@
         <v>2</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>PETUNIA PENDULA VARIADA</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>11.58</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>70</v>
+        <v>45.16</v>
       </c>
       <c r="L46" s="3" t="n">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>13.7</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>2</v>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
@@ -4421,19 +4421,19 @@
       </c>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5402050013</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>TOMATE MARMANDE CUARANTENO</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -4455,10 +4455,10 @@
         <v>14</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>24.92</v>
+        <v>24.36</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>11.45</v>
+        <v>10.95</v>
       </c>
       <c r="K47" s="3" t="n">
         <v>70</v>
@@ -4476,47 +4476,47 @@
         <v>6</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T47" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -4538,13 +4538,13 @@
         <v>14</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>25.06</v>
+        <v>24.92</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>11.58</v>
+        <v>11.45</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>45.16</v>
+        <v>70</v>
       </c>
       <c r="L48" s="3" t="n">
         <v>0</v>
@@ -4556,10 +4556,10 @@
         <v>13.7</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>53</v>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
@@ -5202,10 +5202,10 @@
         <v>12</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>21.36</v>
+        <v>21.48</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>9.82</v>
+        <v>9.93</v>
       </c>
       <c r="K56" s="3" t="n">
         <v>60</v>
@@ -5223,47 +5223,47 @@
         <v>8</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -5285,10 +5285,10 @@
         <v>12</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>21.48</v>
+        <v>21.36</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>9.93</v>
+        <v>9.82</v>
       </c>
       <c r="K57" s="3" t="n">
         <v>60</v>
@@ -5306,35 +5306,35 @@
         <v>8</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R57" s="3" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S57" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T57" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T57" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5756,12 +5756,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>5401020002</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS VARIADA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
@@ -5783,13 +5783,13 @@
         <v>11</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>19.69</v>
+        <v>19.42</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>9.210000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L63" s="3" t="n">
         <v>0</v>
@@ -5801,50 +5801,50 @@
         <v>10.8</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R63" s="3" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W63" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401020002</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>MARGARITA DE LOS PRADOS VARIADA</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
@@ -5866,13 +5866,13 @@
         <v>11</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>19.42</v>
+        <v>19.69</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>8.960000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L64" s="3" t="n">
         <v>0</v>
@@ -5884,38 +5884,38 @@
         <v>10.8</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R64" s="3" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S64" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T64" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T64" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V64" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W64" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6005,12 +6005,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5101010005</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
@@ -6032,13 +6032,13 @@
         <v>3</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>16.47</v>
+        <v>16.17</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3" t="n">
         <v>0</v>
@@ -6050,50 +6050,50 @@
         <v>2.9</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S66" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="5" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>5101010005</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
@@ -6115,13 +6115,13 @@
         <v>3</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>16.17</v>
+        <v>16.47</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>6.45</v>
+        <v>6.72</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L67" s="3" t="n">
         <v>0</v>
@@ -6133,38 +6133,38 @@
         <v>2.9</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" s="3" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R67" s="3" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S67" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="5" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T67" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V67" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="3" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6254,12 +6254,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
@@ -6281,13 +6281,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>17.9</v>
+        <v>17.36</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>8.27</v>
+        <v>7.78</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="L69" s="3" t="n">
         <v>0</v>
@@ -6299,7 +6299,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P69" s="3" t="n">
         <v>2</v>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="U69" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V69" s="3" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="W69" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6420,12 +6420,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr"/>
@@ -6447,13 +6447,13 @@
         <v>10</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>17.36</v>
+        <v>17.9</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>7.78</v>
+        <v>8.27</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>83.33</v>
+        <v>50</v>
       </c>
       <c r="L71" s="3" t="n">
         <v>0</v>
@@ -6465,7 +6465,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P71" s="3" t="n">
         <v>2</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="U71" s="2" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V71" s="3" t="inlineStr">
@@ -6496,19 +6496,19 @@
       </c>
       <c r="W71" s="3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr"/>
@@ -6530,10 +6530,10 @@
         <v>10</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>18.28</v>
+        <v>17.9</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>8.720000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K72" s="3" t="n">
         <v>50</v>
@@ -6551,7 +6551,7 @@
         <v>10</v>
       </c>
       <c r="P72" s="3" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q72" s="3" t="n">
         <v>89</v>
@@ -6586,12 +6586,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
@@ -6613,10 +6613,10 @@
         <v>10</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>17.9</v>
+        <v>18.28</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>8.369999999999999</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K73" s="3" t="n">
         <v>50</v>
@@ -6634,7 +6634,7 @@
         <v>10</v>
       </c>
       <c r="P73" s="3" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q73" s="3" t="n">
         <v>89</v>
@@ -6915,12 +6915,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5102090003</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>DAHLIA BALLE EVELYNE I X1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
@@ -6948,7 +6948,7 @@
         <v>4.82</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
@@ -6960,50 +6960,50 @@
         <v>2.9</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T3" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W3" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>5102090003</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE EVELYNE I X1</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
@@ -7031,7 +7031,7 @@
         <v>4.82</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>0</v>
@@ -7043,50 +7043,50 @@
         <v>2.9</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T4" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>ESPARRAGO MARY WASHINGTON</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -7108,10 +7108,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>15.57</v>
+        <v>16.11</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>6.95</v>
+        <v>7.45</v>
       </c>
       <c r="K5" s="3" t="n">
         <v>90</v>
@@ -7129,47 +7129,47 @@
         <v>1</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T5" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T5" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -7191,10 +7191,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>90</v>
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>89</v>
@@ -7247,12 +7247,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -7274,10 +7274,10 @@
         <v>9</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>15.84</v>
+        <v>15.57</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="K7" s="3" t="n">
         <v>90</v>
@@ -7295,47 +7295,47 @@
         <v>1</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T7" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T7" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -7357,10 +7357,10 @@
         <v>9</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>7.2</v>
+        <v>7.45</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>45</v>
@@ -7378,47 +7378,47 @@
         <v>11</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T8" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T8" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -7440,10 +7440,10 @@
         <v>9</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K9" s="3" t="n">
         <v>45</v>
@@ -7461,35 +7461,35 @@
         <v>11</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T9" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T9" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7579,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5401010024</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -7606,13 +7606,13 @@
         <v>9</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>7.54</v>
+        <v>7.29</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
@@ -7624,50 +7624,50 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>2</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T11" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE VARIADA</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -7695,7 +7695,7 @@
         <v>7.54</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L12" s="3" t="n">
         <v>0</v>
@@ -7707,10 +7707,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>89</v>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
@@ -7738,19 +7738,19 @@
       </c>
       <c r="W12" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>CAMPANULA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -7778,7 +7778,7 @@
         <v>7.54</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>0</v>
@@ -7790,10 +7790,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="3" t="n">
         <v>89</v>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
@@ -7821,19 +7821,19 @@
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5401010024</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -7855,13 +7855,13 @@
         <v>9</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>7.29</v>
+        <v>7.54</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>0</v>
@@ -7873,38 +7873,38 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T14" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T14" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7994,12 +7994,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>ZINNIA GIGANTE FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -8042,7 +8042,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="3" t="n">
         <v>89</v>
@@ -8160,12 +8160,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>ZINNIA GIGANTE FLOR DE DALIA</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -8208,7 +8208,7 @@
         <v>12</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>89</v>
@@ -8243,12 +8243,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5402050003</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>PIMIENTO DULCE ITALIANO</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -8276,7 +8276,7 @@
         <v>6.45</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>0</v>
@@ -8288,38 +8288,38 @@
         <v>7.8</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T19" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T19" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8409,12 +8409,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -8436,13 +8436,13 @@
         <v>8</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>14.16</v>
+        <v>14.32</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>6.55</v>
+        <v>6.7</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L21" s="3" t="n">
         <v>0</v>
@@ -8454,10 +8454,10 @@
         <v>7.8</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="3" t="n">
         <v>89</v>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
@@ -8485,19 +8485,19 @@
       </c>
       <c r="W21" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -8519,10 +8519,10 @@
         <v>8</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>14.32</v>
+        <v>14.05</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="K22" s="3" t="n">
         <v>80</v>
@@ -8540,47 +8540,47 @@
         <v>2</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T22" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T22" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5402050003</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -8602,10 +8602,10 @@
         <v>8</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>14.05</v>
+        <v>14.16</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="K23" s="3" t="n">
         <v>40</v>
@@ -8623,7 +8623,7 @@
         <v>12</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>89</v>
@@ -8741,12 +8741,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -8768,16 +8768,16 @@
         <v>3</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>10.5</v>
+        <v>9.49</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>3.73</v>
+        <v>2.81</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>1</v>
@@ -8786,38 +8786,38 @@
         <v>2.9</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T25" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W25" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -8907,12 +8907,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -8934,16 +8934,16 @@
         <v>3</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>9.49</v>
+        <v>10.5</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>2.81</v>
+        <v>3.73</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>1</v>
@@ -8952,38 +8952,38 @@
         <v>2.9</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T27" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -9156,12 +9156,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>5401030004</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ESTRIADO</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -9183,13 +9183,13 @@
         <v>7</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>35</v>
+        <v>31.82</v>
       </c>
       <c r="L30" s="3" t="n">
         <v>0</v>
@@ -9201,10 +9201,10 @@
         <v>6.8</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>89</v>
@@ -9322,12 +9322,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -9355,7 +9355,7 @@
         <v>5.3</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>31.82</v>
+        <v>35</v>
       </c>
       <c r="L32" s="3" t="n">
         <v>0</v>
@@ -9367,50 +9367,50 @@
         <v>6.8</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T32" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5401030004</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>CLAVEL GIGANTE ESTRIADO</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -9432,10 +9432,10 @@
         <v>7</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>5.3</v>
+        <v>5.79</v>
       </c>
       <c r="K33" s="3" t="n">
         <v>35</v>
@@ -9453,47 +9453,47 @@
         <v>13</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T33" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -9515,13 +9515,13 @@
         <v>7</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>5.86</v>
+        <v>5.37</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
@@ -9533,50 +9533,50 @@
         <v>6.8</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T34" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
@@ -9598,16 +9598,16 @@
         <v>7</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>12.53</v>
+        <v>12.26</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>5.86</v>
+        <v>5.62</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>2.3</v>
@@ -9616,50 +9616,50 @@
         <v>6.8</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T35" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>ALBAHACA LIMON</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -9681,13 +9681,13 @@
         <v>7</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>12.26</v>
+        <v>12.53</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>5.62</v>
+        <v>5.86</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L36" s="3" t="n">
         <v>0</v>
@@ -9699,50 +9699,50 @@
         <v>6.8</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T36" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -9764,16 +9764,16 @@
         <v>7</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>5.37</v>
+        <v>5.86</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>2.3</v>
@@ -9782,50 +9782,50 @@
         <v>6.8</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T37" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -9847,10 +9847,10 @@
         <v>2</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>11.98</v>
+        <v>13.98</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>5.39</v>
+        <v>7.21</v>
       </c>
       <c r="K38" s="3" t="n">
         <v>40</v>
@@ -9868,7 +9868,7 @@
         <v>3</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="3" t="n">
         <v>92</v>
@@ -9903,12 +9903,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
         <v>3</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>92</v>
@@ -9986,12 +9986,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -10013,10 +10013,10 @@
         <v>2</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>13.98</v>
+        <v>11.98</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>7.21</v>
+        <v>5.39</v>
       </c>
       <c r="K40" s="3" t="n">
         <v>40</v>
@@ -10034,7 +10034,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="3" t="n">
         <v>92</v>
@@ -10235,12 +10235,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -10262,13 +10262,13 @@
         <v>2</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>10.78</v>
+        <v>8.9</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>4.92</v>
+        <v>3.21</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L43" s="3" t="n">
         <v>0</v>
@@ -10280,10 +10280,10 @@
         <v>2</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>92</v>
@@ -10318,12 +10318,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -10345,13 +10345,13 @@
         <v>2</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>8.9</v>
+        <v>10.78</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>3.21</v>
+        <v>4.92</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L44" s="3" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>92</v>
@@ -10401,12 +10401,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -10434,7 +10434,7 @@
         <v>3.21</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L45" s="3" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>2</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q45" s="3" t="n">
         <v>92</v>
@@ -10484,12 +10484,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -10511,13 +10511,13 @@
         <v>6</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="n">
         <v>0</v>
@@ -10529,50 +10529,50 @@
         <v>5.9</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T46" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T46" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
+          <t>SANDÍA CRIMSON SWEET</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>14</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="3" t="n">
         <v>89</v>
@@ -10650,12 +10650,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET</t>
+          <t>CRISANTEMOS DE LOS JARDINES VARIADOS</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -10698,7 +10698,7 @@
         <v>14</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>89</v>
@@ -10733,12 +10733,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -10760,13 +10760,13 @@
         <v>6</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>0</v>
@@ -10778,50 +10778,50 @@
         <v>5.9</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T49" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W49" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
@@ -10864,7 +10864,7 @@
         <v>4</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>53</v>
@@ -10899,12 +10899,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -10926,13 +10926,13 @@
         <v>6</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>5.02</v>
+        <v>4.78</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L51" s="3" t="n">
         <v>0</v>
@@ -10944,50 +10944,50 @@
         <v>5.9</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T51" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
@@ -11009,13 +11009,13 @@
         <v>6</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>10.47</v>
+        <v>10.2</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>4.78</v>
+        <v>4.53</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L52" s="3" t="n">
         <v>0</v>
@@ -11027,38 +11027,38 @@
         <v>5.9</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T52" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W52" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11148,12 +11148,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
@@ -11175,10 +11175,10 @@
         <v>6</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>10.2</v>
+        <v>10.74</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>4.53</v>
+        <v>5.02</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>60</v>
@@ -11196,7 +11196,7 @@
         <v>4</v>
       </c>
       <c r="P54" s="3" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q54" s="3" t="n">
         <v>53</v>
@@ -11231,12 +11231,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
@@ -11279,7 +11279,7 @@
         <v>4</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q55" s="3" t="n">
         <v>53</v>
@@ -11895,12 +11895,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
@@ -11928,7 +11928,7 @@
         <v>4.19</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L63" s="3" t="n">
         <v>0</v>
@@ -11940,50 +11940,50 @@
         <v>4.9</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R63" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T63" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W63" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
@@ -12011,7 +12011,7 @@
         <v>4.19</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L64" s="3" t="n">
         <v>0</v>
@@ -12023,50 +12023,50 @@
         <v>4.9</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R64" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S64" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T64" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T64" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V64" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W64" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
@@ -12109,47 +12109,47 @@
         <v>5</v>
       </c>
       <c r="P65" s="3" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R65" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S65" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T65" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T65" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V65" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W65" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
@@ -12192,35 +12192,35 @@
         <v>5</v>
       </c>
       <c r="P66" s="3" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R66" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S66" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T66" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T66" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W66" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13220,12 +13220,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -13247,13 +13247,13 @@
         <v>4</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>6.89</v>
+        <v>7.54</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>3.1</v>
+        <v>3.69</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
@@ -13265,38 +13265,38 @@
         <v>3.9</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T11" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13386,12 +13386,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -13413,10 +13413,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K13" s="3" t="n">
         <v>40</v>
@@ -13434,47 +13434,47 @@
         <v>6</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T13" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -13496,13 +13496,13 @@
         <v>4</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>0</v>
@@ -13514,10 +13514,10 @@
         <v>3.9</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>89</v>
@@ -13552,12 +13552,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>PIMIENTO BLOCKY AMARILLO</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -13579,10 +13579,10 @@
         <v>4</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K15" s="3" t="n">
         <v>40</v>
@@ -13600,47 +13600,47 @@
         <v>6</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T15" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -13662,13 +13662,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3" t="n">
         <v>0</v>
@@ -13680,50 +13680,50 @@
         <v>3.9</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T16" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -13745,13 +13745,13 @@
         <v>4</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>7.54</v>
+        <v>6.89</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>3.69</v>
+        <v>3.1</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L17" s="3" t="n">
         <v>0</v>
@@ -13763,38 +13763,38 @@
         <v>3.9</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T17" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -14216,12 +14216,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -14299,12 +14299,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -14465,12 +14465,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -14498,7 +14498,7 @@
         <v>2.48</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L26" s="3" t="n">
         <v>0</v>
@@ -14510,10 +14510,10 @@
         <v>2.9</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>89</v>
@@ -14631,12 +14631,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>CEBOLLINO ANUAL</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -14664,7 +14664,7 @@
         <v>2.48</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -14676,10 +14676,10 @@
         <v>2.9</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="3" t="n">
         <v>89</v>
@@ -14714,12 +14714,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>COL REPOLLO BRUNSWICK TENTA</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -14741,13 +14741,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>5.75</v>
+        <v>5.37</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>2.86</v>
+        <v>2.51</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="n">
         <v>0</v>
@@ -14759,50 +14759,50 @@
         <v>2.9</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T29" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T29" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -14824,10 +14824,10 @@
         <v>3</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>5.37</v>
+        <v>4.83</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>2.51</v>
+        <v>2.02</v>
       </c>
       <c r="K30" s="3" t="n">
         <v>0</v>
@@ -14845,7 +14845,7 @@
         <v>-3</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>0</v>
@@ -14880,12 +14880,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>COL REPOLLO BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
@@ -14907,13 +14907,13 @@
         <v>3</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>4.83</v>
+        <v>5.75</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>2.02</v>
+        <v>2.86</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L31" s="3" t="n">
         <v>0</v>
@@ -14925,38 +14925,38 @@
         <v>2.9</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T31" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -15295,24 +15295,16 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t>54</t>
@@ -15330,16 +15322,16 @@
         <v>2</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>0.7</v>
@@ -15348,54 +15340,62 @@
         <v>2</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T36" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
           <t>54</t>
@@ -15413,16 +15413,16 @@
         <v>2</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>0.7</v>
@@ -15431,38 +15431,38 @@
         <v>2</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T37" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -15552,12 +15552,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -15579,13 +15579,13 @@
         <v>2</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>3.58</v>
+        <v>3.04</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
@@ -15597,50 +15597,50 @@
         <v>2</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T39" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>PIMIENTO PADRON</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -15662,13 +15662,13 @@
         <v>2</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>3.04</v>
+        <v>3.58</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>1.16</v>
+        <v>1.65</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L40" s="3" t="n">
         <v>0</v>
@@ -15680,50 +15680,50 @@
         <v>2</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P40" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q40" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="Q40" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" s="3" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T40" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -15745,13 +15745,13 @@
         <v>2</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L41" s="3" t="n">
         <v>0</v>
@@ -15763,50 +15763,50 @@
         <v>2</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T41" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -15828,13 +15828,13 @@
         <v>2</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="n">
         <v>0</v>
@@ -15846,50 +15846,50 @@
         <v>2</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T42" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W42" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>5402090015</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>ESPINACA VIKING DE VERANO</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -15932,7 +15932,7 @@
         <v>8</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>89</v>
@@ -15967,12 +15967,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA</t>
+          <t>BERENJENA REDONDA NEGRA LISA</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -16015,47 +16015,47 @@
         <v>8</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S44" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T44" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T44" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W44" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -16098,7 +16098,7 @@
         <v>8</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="3" t="n">
         <v>89</v>
@@ -16133,12 +16133,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5402090015</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>ESPINACA VIKING DE VERANO</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -16181,7 +16181,7 @@
         <v>8</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q46" s="3" t="n">
         <v>89</v>
@@ -16216,12 +16216,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>CALABAZA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -16249,7 +16249,7 @@
         <v>0.83</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>0</v>
@@ -16261,16 +16261,16 @@
         <v>1</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>0</v>
+        <v>38.33</v>
       </c>
       <c r="S47" s="4" t="n">
         <v>0</v>
@@ -16282,29 +16282,29 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -16332,7 +16332,7 @@
         <v>0.83</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
         <v>0</v>
@@ -16344,16 +16344,16 @@
         <v>1</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>38.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="4" t="n">
         <v>0</v>
@@ -16365,29 +16365,29 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -16415,7 +16415,7 @@
         <v>0.84</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>0</v>
@@ -16427,50 +16427,50 @@
         <v>1</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T49" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
@@ -16492,13 +16492,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L50" s="3" t="n">
         <v>0</v>
@@ -16510,50 +16510,50 @@
         <v>1</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T50" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W50" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -16575,10 +16575,10 @@
         <v>1</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="K51" s="3" t="n">
         <v>0</v>
@@ -16596,7 +16596,7 @@
         <v>-1</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="Q51" s="3" t="n">
         <v>0</v>
@@ -17043,24 +17043,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -17079,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>92</v>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
@@ -17126,32 +17126,24 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5103010005</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -17170,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -17179,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>92</v>
@@ -17200,7 +17192,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -17217,24 +17209,24 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5404010024</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+          <t>PEREJIL COMUN ECOLOGICO</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -17253,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -17262,19 +17254,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>153.33</v>
+        <v>88.33</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -17283,12 +17275,12 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -17300,24 +17292,24 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5402020018</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
+          <t>CALABAZA MAMMOTH GOLD</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -17336,7 +17328,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -17345,19 +17337,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -17366,12 +17358,12 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -17383,12 +17375,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5107190003</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -17419,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
@@ -17428,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>92</v>
@@ -17449,7 +17441,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -17466,24 +17458,32 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
@@ -17502,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -17511,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>92</v>
@@ -17532,7 +17532,7 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
@@ -17549,32 +17549,24 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
@@ -17593,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
@@ -17602,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>92</v>
@@ -17623,7 +17615,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
@@ -17723,32 +17715,24 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -17767,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
@@ -17776,19 +17760,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
@@ -17797,12 +17781,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -17814,12 +17798,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 X3</t>
+          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -17850,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0</v>
@@ -17859,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>92</v>
@@ -17880,7 +17864,7 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
@@ -17897,12 +17881,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -17933,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -17942,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>92</v>
@@ -17963,7 +17947,7 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
@@ -17980,12 +17964,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -18016,7 +18000,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -18025,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>92</v>
@@ -18046,7 +18030,7 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
@@ -18063,12 +18047,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
+          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -18099,7 +18083,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -18108,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>92</v>
@@ -18129,7 +18113,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -18146,24 +18130,24 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -18212,7 +18196,7 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
@@ -18229,24 +18213,24 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5401010029</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>TAGETE ENANO</t>
+          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -18265,7 +18249,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
@@ -18274,19 +18258,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -18295,12 +18279,12 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -18312,24 +18296,24 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5401020001</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
+          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -18348,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0</v>
@@ -18357,19 +18341,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7" t="inlineStr">
         <is>
@@ -18378,12 +18362,12 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
@@ -18395,12 +18379,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
+          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -18431,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -18440,7 +18424,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>92</v>
@@ -18461,7 +18445,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -18478,24 +18462,24 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5401020001</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -18514,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>0</v>
@@ -18523,19 +18507,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -18544,12 +18528,12 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -18561,24 +18545,24 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>5402090014</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>ESPINACA GIGANTE DE INVIERNO</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
@@ -18597,7 +18581,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>0</v>
@@ -18606,19 +18590,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -18627,12 +18611,12 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -18644,12 +18628,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
+          <t>ARUM MEZCLADO 14/16 X3</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -18680,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>0</v>
@@ -18689,7 +18673,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>92</v>
@@ -18710,7 +18694,7 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
@@ -18727,24 +18711,32 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
@@ -18763,7 +18755,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>0</v>
@@ -18772,19 +18764,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -18793,12 +18785,12 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
@@ -18810,24 +18802,24 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5404010024</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN ECOLOGICO</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
@@ -18846,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -18855,19 +18847,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>88.33</v>
+        <v>153.33</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -18876,12 +18868,12 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
@@ -18893,24 +18885,24 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5103010005</t>
+          <t>5401010029</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
+          <t>TAGETE ENANO</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -18929,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>0</v>
@@ -18938,19 +18930,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -18959,12 +18951,12 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
@@ -18976,12 +18968,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
+          <t>FREESIA DOBLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -19012,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>0</v>
@@ -19021,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>92</v>
@@ -19042,7 +19034,7 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
@@ -19059,24 +19051,24 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5402020018</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA MAMMOTH GOLD</t>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
@@ -19095,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>0</v>
@@ -19104,19 +19096,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -19125,12 +19117,12 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
@@ -19142,24 +19134,32 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -19178,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>0</v>
@@ -19187,7 +19187,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>92</v>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
@@ -19225,24 +19225,24 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5107190003</t>
+          <t>5402090014</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
+          <t>ESPINACA GIGANTE DE INVIERNO</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
@@ -19261,7 +19261,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0</v>
@@ -19270,19 +19270,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T28" s="7" t="inlineStr">
         <is>
@@ -19291,12 +19291,12 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
